--- a/Fondos.xlsx
+++ b/Fondos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Documents\GitHub\final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documentos\GitHub\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1833D575-4EF5-44FF-AACC-FB8F6DCD5325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{1833D575-4EF5-44FF-AACC-FB8F6DCD5325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD75C19B-161C-4035-9043-C101BD190158}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F9111C3-DC7D-47A0-BF8E-91A0BBD53D8D}"/>
   </bookViews>
@@ -23,11 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,18 +39,9 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>Market Cap</t>
-  </si>
-  <si>
-    <t>Investment Style</t>
-  </si>
-  <si>
     <t>VSMPX</t>
   </si>
   <si>
-    <t>Vanguard Total Stock Market Index Fund Institutional Plus Shares</t>
-  </si>
-  <si>
     <t>Blend</t>
   </si>
   <si>
@@ -91,9 +78,6 @@
     <t>FSGEX</t>
   </si>
   <si>
-    <t>Fidelity Salem Street Trust - Fidelity Series Global ex U.S. Index Fund</t>
-  </si>
-  <si>
     <t>VGHAX</t>
   </si>
   <si>
@@ -185,6 +169,18 @@
   </si>
   <si>
     <t>Fidelity Advisor Total Bond Fund Class Z</t>
+  </si>
+  <si>
+    <t>Invest Style</t>
+  </si>
+  <si>
+    <t>Mkt Cap</t>
+  </si>
+  <si>
+    <t>Fidelity Salem Street Trust - Series Global ex U.S. Index Fund</t>
+  </si>
+  <si>
+    <t>Vanguard Stock Market Index Fund Institutional Plus Shares</t>
   </si>
 </sst>
 </file>
@@ -581,7 +577,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,290 +595,290 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
